--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W5_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W5_H100_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5545454545454546</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9838709677419355</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0.5535714285714286</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7093023255813954</v>
+        <v>0.7126436781609196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4732142857142857</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.06074635301166287</v>
+        <v>0.0724783370554106</v>
       </c>
       <c r="J2" t="n">
-        <v>750.9432620134726</v>
+        <v>946.4538004581683</v>
       </c>
       <c r="K2" t="n">
-        <v>780218.7833613364</v>
+        <v>1260546.490512977</v>
       </c>
       <c r="L2" t="n">
-        <v>883.2999396362123</v>
+        <v>1122.740615865026</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8562149586559311</v>
+        <v>0.7676962755578911</v>
       </c>
     </row>
   </sheetData>
